--- a/Obfuscation.xlsx
+++ b/Obfuscation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E29B2991-5C42-4327-9169-338C8774B20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9B538A-6F47-42E4-9AD5-71CC3812C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"> Đây là cách em thực thi phương thức.</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở bước cài đặt JD-GUI ta sẽ truy cập: https://java-decompiler.github.io/ và tải file .jar của nó về có tên là jd-gui-1.6.6.jar.                                                                                                                     ProGuard: https://www.guardsquare.com/proguard phải chú ý cách để ở trong program file sao cho có thể trỏ đến như java  </t>
   </si>
 </sst>
 </file>
@@ -211,20 +214,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -322,16 +325,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Checklist" displayName="Checklist" ref="B4:D18" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="B4:D18" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Checklist" displayName="Checklist" ref="B4:D14" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="B4:D14" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Steps" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="2" dataCellStyle="Owner"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Note" dataDxfId="1" dataCellStyle="Date"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Steps" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="1" dataCellStyle="Owner"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Note" dataDxfId="0" dataCellStyle="Date"/>
   </tableColumns>
   <tableStyleInfo name="Business Plan Checklist" showFirstColumn="0" showLastColumn="1" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -633,37 +636,37 @@
     <tabColor theme="4" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:D18"/>
+  <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="82.796875" customWidth="1"/>
-    <col min="4" max="4" width="54.3984375" customWidth="1"/>
-    <col min="5" max="5" width="2.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="82.75" customWidth="1"/>
+    <col min="4" max="4" width="54.375" customWidth="1"/>
+    <col min="5" max="5" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -674,99 +677,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+    <row r="5" spans="2:4" ht="71.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="2:4" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="2:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+    <row r="8" spans="2:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="2:4" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -794,6 +781,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -811,15 +807,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1123,6 +1110,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4994F8E-3141-47F3-91B7-8A348AFEAE97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B3E0A64-3B79-40D0-B5B8-9F6FE2202932}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1130,14 +1125,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4994F8E-3141-47F3-91B7-8A348AFEAE97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
